--- a/team_specific_matrix/Western N.M._A.xlsx
+++ b/team_specific_matrix/Western N.M._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1428571428571428</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2857142857142857</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S7">
-        <v>0.4285714285714285</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1363636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1818181818181818</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04545454545454546</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.04545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="R8">
-        <v>0.1363636363636364</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="S8">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,32 +970,32 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02702702702702703</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02702702702702703</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0.1216216216216216</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0.1081081081081081</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.05405405405405406</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.05405405405405406</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1891891891891892</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="R10">
-        <v>0.05405405405405406</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="S10">
-        <v>0.4864864864864865</v>
+        <v>0.4594594594594595</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L11">
         <v>0.5</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8333333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.1111111111111111</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="J15">
         <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I16">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J16">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="J17">
-        <v>0.2</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="I18">
-        <v>0.1428571428571428</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="J18">
-        <v>0.2857142857142857</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.4285714285714285</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.265625</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="I19">
-        <v>0.09375</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J19">
-        <v>0.296875</v>
+        <v>0.3596491228070176</v>
       </c>
       <c r="K19">
-        <v>0.125</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.015625</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.203125</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
   </sheetData>
